--- a/tray/Model performance log.xlsx
+++ b/tray/Model performance log.xlsx
@@ -4,10 +4,11 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowHeight="23941"/>
+    <workbookView windowWidth="22651" windowHeight="10981"/>
   </bookViews>
   <sheets>
-    <sheet name="Arbeitsblatt1" sheetId="1" r:id="rId1"/>
+    <sheet name="Model Performance Log" sheetId="1" r:id="rId1"/>
+    <sheet name="Feature Selection" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -27,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="146" uniqueCount="79">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="205" uniqueCount="127">
   <si>
     <t>KNN Regressor Performance Log</t>
   </si>
@@ -223,7 +224,106 @@
 Symmetric Mean Absolute Percentage Error (sMAPE): 15.6121</t>
   </si>
   <si>
-    <t>best k</t>
+    <t>Test Metrics:
+Mean Absolute Error (MAE): 52178.8518
+Root Mean Squared Error (RMSE): 80868.5314
+Mean Squared Error (MSE): 6541083666.1868
+R Squared: 0.6892
+Mean Absolute Percentage Error (MAPE): 16.5468
+Symmetric Mean Absolute Percentage Error (sMAPE): 14.9972</t>
+  </si>
+  <si>
+    <t>Test Metrics:
+Mean Absolute Error (MAE): 51542.0149
+Root Mean Squared Error (RMSE): 79888.5529
+Mean Squared Error (MSE): 6383972876.3828
+R Squared: 0.6967
+Mean Absolute Percentage Error (MAPE): 16.2792
+Symmetric Mean Absolute Percentage Error (sMAPE): 14.7964</t>
+  </si>
+  <si>
+    <t>Test Metrics:
+Mean Absolute Error (MAE): 51737.3013
+Root Mean Squared Error (RMSE): 80238.5290
+Mean Squared Error (MSE): 6439454215.0654
+R Squared: 0.6940
+Mean Absolute Percentage Error (MAPE): 16.3416
+Symmetric Mean Absolute Percentage Error (sMAPE): 14.8403</t>
+  </si>
+  <si>
+    <t>Test Metrics:
+Mean Absolute Error (MAE): 51661.7731
+Root Mean Squared Error (RMSE): 80161.4159
+Mean Squared Error (MSE): 6428204170.7211
+R Squared: 0.6947
+Mean Absolute Percentage Error (MAPE): 16.2962
+Symmetric Mean Absolute Percentage Error (sMAPE): 14.8103</t>
+  </si>
+  <si>
+    <t>Test Metrics:
+Mean Absolute Error (MAE): 52421.9953
+Root Mean Squared Error (RMSE): 81460.7138
+Mean Squared Error (MSE): 6639403389.3591
+R Squared: 0.6847
+Mean Absolute Percentage Error (MAPE): 16.5715
+Symmetric Mean Absolute Percentage Error (sMAPE): 15.0268</t>
+  </si>
+  <si>
+    <t>Test Metrics:
+Mean Absolute Error (MAE): 51604.2755
+Root Mean Squared Error (RMSE): 80007.3790
+Mean Squared Error (MSE): 6402963323.1750
+R Squared: 0.6958
+Mean Absolute Percentage Error (MAPE): 16.2942
+Symmetric Mean Absolute Percentage Error (sMAPE): 14.8107</t>
+  </si>
+  <si>
+    <t>Test Metrics:
+Mean Absolute Error (MAE): 51362.3447
+Root Mean Squared Error (RMSE): 79060.8344
+Mean Squared Error (MSE): 6252528466.4853
+R Squared: 0.7030
+Mean Absolute Percentage Error (MAPE): 16.3694
+Symmetric Mean Absolute Percentage Error (sMAPE): 14.7726</t>
+  </si>
+  <si>
+    <t>Test Metrics:
+Mean Absolute Error (MAE): 51453.9462
+Root Mean Squared Error (RMSE): 79155.8218
+Mean Squared Error (MSE): 6266987938.4740
+R Squared: 0.7022
+Mean Absolute Percentage Error (MAPE): 16.3763
+Symmetric Mean Absolute Percentage Error (sMAPE): 14.7858</t>
+  </si>
+  <si>
+    <t>Test Metrics:
+Mean Absolute Error (MAE): 51535.3542
+Root Mean Squared Error (RMSE): 78651.3220
+Mean Squared Error (MSE): 6188215764.6410
+R Squared: 0.7060
+Mean Absolute Percentage Error (MAPE): 16.5490
+Symmetric Mean Absolute Percentage Error (sMAPE): 14.8693</t>
+  </si>
+  <si>
+    <t>Test Metrics:
+Mean Absolute Error (MAE): 51816.5147
+Root Mean Squared Error (RMSE): 80368.4624
+Mean Squared Error (MSE): 6460144153.4291
+R Squared: 0.6931
+Mean Absolute Percentage Error (MAPE): 16.3609
+Symmetric Mean Absolute Percentage Error (sMAPE): 14.8560</t>
+  </si>
+  <si>
+    <t>Test Metrics:
+Mean Absolute Error (MAE): 51774.7399
+Root Mean Squared Error (RMSE): 80168.5292
+Mean Squared Error (MSE): 6428435540.3095
+R Squared: 0.6946
+Mean Absolute Percentage Error (MAPE): 16.3717
+Symmetric Mean Absolute Percentage Error (sMAPE): 14.8606</t>
+  </si>
+  <si>
+    <t>k</t>
   </si>
   <si>
     <t>weights</t>
@@ -294,6 +394,30 @@
     <t>['zip_code', 'living_area', 'building_condition_encoded', 'terrace_encoded', 'equipped_kitchen_encoded', 'subtype_of_property_encoded', 'com_avg_income', 'commune_income_cluster']</t>
   </si>
   <si>
+    <t>commune_encoded', 'zip_code', 'min_distance', 'latitude', 'longitude', 'com_avg_income', 'commune_income_cluster', 'living_area', 'subtype_of_property_encoded', 'building_condition_encoded', 'equipped_kitchen_encoded', 'terrace_encoded'</t>
+  </si>
+  <si>
+    <t>zip_code', 'min_distance', 'latitude', 'longitude', 'com_avg_income', 'commune_income_cluster', 'living_area', 'subtype_of_property_encoded', 'building_condition_encoded', 'equipped_kitchen_encoded', 'terrace_encoded'</t>
+  </si>
+  <si>
+    <t>min_distance', 'latitude', 'longitude', 'com_avg_income', 'commune_income_cluster', 'living_area', 'subtype_of_property_encoded', 'building_condition_encoded', 'equipped_kitchen_encoded', 'terrace_encoded'</t>
+  </si>
+  <si>
+    <t>zip_code', 'min_distance', 'latitude', 'com_avg_income', 'commune_income_cluster', 'living_area', 'subtype_of_property_encoded', 'building_condition_encoded', 'equipped_kitchen_encoded', 'terrace_encoded'</t>
+  </si>
+  <si>
+    <t>living_area', 'com_avg_income', 'zip_code', 'building_condition_encoded', 'subtype_of_property_encoded', 'latitude', 'longitude', 'equipped_kitchen_encoded', 'min_distance', 'terrace_encoded'</t>
+  </si>
+  <si>
+    <t>living_area', 'com_avg_income', 'building_condition_encoded', 'subtype_of_property_encoded', 'latitude', 'longitude', 'equipped_kitchen_encoded', 'min_distance', 'terrace_encoded'</t>
+  </si>
+  <si>
+    <t>latitude', 'longitude', 'min_distance', 'com_avg_income', 'living_area', 'subtype_of_property_encoded', 'building_condition_encoded', 'equipped_kitchen_encoded', 'terrace_encoded'</t>
+  </si>
+  <si>
+    <t>living_area', 'com_avg_income', 'refnis_code', 'building_condition_encoded', 'subtype_of_property_encoded', 'latitude', 'longitude', 'equipped_kitchen_encoded', 'min_distance', 'terrace_encoded'</t>
+  </si>
+  <si>
     <t>log transformation</t>
   </si>
   <si>
@@ -318,6 +442,9 @@
     <t xml:space="preserve">removed for price </t>
   </si>
   <si>
+    <t>removed in price using IQR and others</t>
+  </si>
+  <si>
     <t>Location Cluster</t>
   </si>
   <si>
@@ -336,6 +463,9 @@
     <t>k-fold: 6</t>
   </si>
   <si>
+    <t>k-folds: 5</t>
+  </si>
+  <si>
     <t>Comment</t>
   </si>
   <si>
@@ -381,7 +511,88 @@
     <t>Will not use this combination of features, since 4 features with relation to location? But very low correlation among these features:  Highest 0.28</t>
   </si>
   <si>
+    <t>with calculated distance to nearest city</t>
+  </si>
+  <si>
+    <t>without commune_encoded</t>
+  </si>
+  <si>
+    <t>without zip_code</t>
+  </si>
+  <si>
+    <t>without longitude</t>
+  </si>
+  <si>
+    <t>without latitude and longitude</t>
+  </si>
+  <si>
+    <t>without commune income cluster</t>
+  </si>
+  <si>
+    <t>without commune income cluster; with higher k</t>
+  </si>
+  <si>
+    <t>without commune income cluster; without zip_code; with higher k</t>
+  </si>
+  <si>
+    <t>without commune income cluster and without zip_code</t>
+  </si>
+  <si>
+    <t>without commune income cluster and with refnis code instead of zip code</t>
+  </si>
+  <si>
     <t>Data Leakage</t>
+  </si>
+  <si>
+    <t>Features Highest Correlated with Price without high correlation with other features</t>
+  </si>
+  <si>
+    <t>High correlation coefficient = 0.7 - 0.9</t>
+  </si>
+  <si>
+    <t>- Living area (0.43)</t>
+  </si>
+  <si>
+    <t>- (Bedroom nr (0.34) -&gt; high correlation with living area) (0.78)</t>
+  </si>
+  <si>
+    <t>- com_avg_income (0.32)</t>
+  </si>
+  <si>
+    <t>- latitude (0.20) &amp; longitude (-0.11)</t>
+  </si>
+  <si>
+    <t>- refnis code (-0.29)</t>
+  </si>
+  <si>
+    <t>- building condition (0.25)</t>
+  </si>
+  <si>
+    <t>- (com_prosp_index (0.24)-&gt; high correlation with com_avg_income (0.92))</t>
+  </si>
+  <si>
+    <t>- sutype of property (0.18)</t>
+  </si>
+  <si>
+    <t>- equipped kitchen (0.17)</t>
+  </si>
+  <si>
+    <t>- commune income cluster (-0.16)</t>
+  </si>
+  <si>
+    <t>--&gt; change number of clusters?</t>
+  </si>
+  <si>
+    <t>- zip_code (-0.16)</t>
+  </si>
+  <si>
+    <t>- min_distance (-0.14)</t>
+  </si>
+  <si>
+    <t>- terrace (0.13)</t>
+  </si>
+  <si>
+    <t>- facade number (0.10)</t>
   </si>
 </sst>
 </file>
@@ -562,12 +773,24 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="35">
+  <fills count="37">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0" tint="-0.15"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
@@ -900,7 +1123,7 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -924,16 +1147,16 @@
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="5" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="6" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="6" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="7" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="7" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="8" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="8" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="9" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
@@ -942,90 +1165,96 @@
     <xf numFmtId="0" fontId="16" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -1040,10 +1269,16 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1" quotePrefix="1">
@@ -1051,6 +1286,15 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1" quotePrefix="1">
       <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" quotePrefix="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" quotePrefix="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="49">
@@ -1585,12 +1829,12 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:Y14"/>
+  <dimension ref="A1:AJ14"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" topLeftCell="A3" workbookViewId="0">
-      <pane xSplit="1" topLeftCell="U1" activePane="topRight" state="frozen"/>
+    <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <pane xSplit="1" topLeftCell="AC1" activePane="topRight" state="frozen"/>
       <selection/>
-      <selection pane="topRight" activeCell="W6" sqref="W6"/>
+      <selection pane="topRight" activeCell="AD6" sqref="AD6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88495575221239" defaultRowHeight="15"/>
@@ -1618,93 +1862,134 @@
     <col min="23" max="23" width="39.3982300884956" customWidth="1"/>
     <col min="24" max="24" width="39.7610619469027" customWidth="1"/>
     <col min="25" max="25" width="41.9823008849558" customWidth="1"/>
+    <col min="26" max="26" width="42.8407079646018" customWidth="1"/>
+    <col min="27" max="27" width="38.0442477876106" customWidth="1"/>
+    <col min="28" max="28" width="37.0530973451327" customWidth="1"/>
+    <col min="29" max="29" width="42.8407079646018" customWidth="1"/>
+    <col min="30" max="30" width="36.929203539823" customWidth="1"/>
+    <col min="31" max="34" width="37.4159292035398" customWidth="1"/>
+    <col min="35" max="35" width="38.4070796460177" customWidth="1"/>
+    <col min="36" max="36" width="37.3008849557522" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" ht="18.15" spans="1:1">
-      <c r="A1" s="2" t="s">
+      <c r="A1" s="4" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="3" s="1" customFormat="1" ht="135.25" spans="1:25">
-      <c r="A3" s="1" t="s">
+    <row r="3" s="3" customFormat="1" ht="165.3" spans="1:36">
+      <c r="A3" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="1" t="s">
+      <c r="B3" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="C3" s="1" t="s">
+      <c r="C3" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="D3" s="1" t="s">
+      <c r="D3" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="E3" s="1" t="s">
+      <c r="E3" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="F3" s="1" t="s">
+      <c r="F3" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="G3" s="1" t="s">
+      <c r="G3" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="H3" s="3" t="s">
+      <c r="H3" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="I3" s="1" t="s">
+      <c r="I3" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="J3" s="1" t="s">
+      <c r="J3" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="K3" s="1" t="s">
+      <c r="K3" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="L3" s="3" t="s">
+      <c r="L3" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="M3" s="1" t="s">
+      <c r="M3" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="N3" s="3" t="s">
+      <c r="N3" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="O3" s="1" t="s">
+      <c r="O3" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="P3" s="1" t="s">
+      <c r="P3" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="Q3" s="1" t="s">
+      <c r="Q3" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="R3" s="1" t="s">
+      <c r="R3" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="S3" s="6" t="s">
+      <c r="S3" s="8" t="s">
         <v>19</v>
       </c>
-      <c r="T3" s="1" t="s">
+      <c r="T3" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="U3" s="1" t="s">
+      <c r="U3" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="V3" s="1" t="s">
+      <c r="V3" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="W3" s="1" t="s">
+      <c r="W3" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="X3" s="6" t="s">
+      <c r="X3" s="8" t="s">
         <v>24</v>
       </c>
-      <c r="Y3" s="1" t="s">
+      <c r="Y3" s="3" t="s">
         <v>25</v>
       </c>
+      <c r="Z3" s="8" t="s">
+        <v>26</v>
+      </c>
+      <c r="AA3" s="9" t="s">
+        <v>27</v>
+      </c>
+      <c r="AB3" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="AC3" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="AD3" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="AE3" s="8" t="s">
+        <v>31</v>
+      </c>
+      <c r="AF3" s="8" t="s">
+        <v>32</v>
+      </c>
+      <c r="AG3" s="9" t="s">
+        <v>33</v>
+      </c>
+      <c r="AH3" s="10" t="s">
+        <v>34</v>
+      </c>
+      <c r="AI3" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="AJ3" s="3" t="s">
+        <v>36</v>
+      </c>
     </row>
-    <row r="4" spans="1:24">
+    <row r="4" spans="1:34">
       <c r="A4" t="s">
-        <v>26</v>
+        <v>37</v>
       </c>
       <c r="B4">
         <v>14</v>
@@ -1724,7 +2009,7 @@
       <c r="G4">
         <v>29</v>
       </c>
-      <c r="H4" s="4">
+      <c r="H4" s="6">
         <v>17</v>
       </c>
       <c r="I4">
@@ -1736,7 +2021,7 @@
       <c r="K4">
         <v>20</v>
       </c>
-      <c r="L4" s="4">
+      <c r="L4" s="6">
         <v>20</v>
       </c>
       <c r="M4">
@@ -1763,259 +2048,322 @@
       <c r="X4">
         <v>5</v>
       </c>
+      <c r="AE4">
+        <v>5</v>
+      </c>
+      <c r="AF4">
+        <v>9</v>
+      </c>
+      <c r="AG4">
+        <v>8</v>
+      </c>
+      <c r="AH4">
+        <v>15</v>
+      </c>
     </row>
-    <row r="5" spans="1:24">
+    <row r="5" spans="1:33">
       <c r="A5" t="s">
-        <v>27</v>
+        <v>38</v>
       </c>
       <c r="B5" t="s">
-        <v>28</v>
+        <v>39</v>
       </c>
       <c r="C5" t="s">
-        <v>28</v>
+        <v>39</v>
       </c>
       <c r="D5" t="s">
-        <v>28</v>
+        <v>39</v>
       </c>
       <c r="E5" t="s">
-        <v>28</v>
+        <v>39</v>
       </c>
       <c r="F5" t="s">
-        <v>28</v>
+        <v>39</v>
       </c>
       <c r="G5" t="s">
-        <v>28</v>
-      </c>
-      <c r="H5" s="4"/>
+        <v>39</v>
+      </c>
+      <c r="H5" s="6"/>
       <c r="J5" t="s">
-        <v>28</v>
+        <v>39</v>
       </c>
       <c r="K5" t="s">
-        <v>28</v>
-      </c>
-      <c r="L5" s="4" t="s">
-        <v>28</v>
+        <v>39</v>
+      </c>
+      <c r="L5" s="6" t="s">
+        <v>39</v>
       </c>
       <c r="Q5" t="s">
-        <v>29</v>
+        <v>40</v>
       </c>
       <c r="R5" t="s">
-        <v>28</v>
+        <v>39</v>
       </c>
       <c r="S5" t="s">
-        <v>28</v>
+        <v>39</v>
       </c>
       <c r="T5" t="s">
-        <v>28</v>
+        <v>39</v>
       </c>
       <c r="X5" t="s">
-        <v>28</v>
+        <v>39</v>
+      </c>
+      <c r="Y5" t="s">
+        <v>39</v>
+      </c>
+      <c r="Z5" t="s">
+        <v>39</v>
+      </c>
+      <c r="AG5" t="s">
+        <v>39</v>
       </c>
     </row>
-    <row r="6" s="1" customFormat="1" ht="180.3" spans="1:25">
-      <c r="A6" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="B6" s="7" t="s">
-        <v>31</v>
-      </c>
-      <c r="C6" s="7" t="s">
-        <v>31</v>
-      </c>
-      <c r="D6" s="7" t="s">
-        <v>31</v>
-      </c>
-      <c r="E6" s="7" t="s">
-        <v>32</v>
-      </c>
-      <c r="F6" s="7" t="s">
-        <v>32</v>
-      </c>
-      <c r="G6" s="7" t="s">
-        <v>33</v>
-      </c>
-      <c r="H6" s="8" t="s">
-        <v>34</v>
-      </c>
-      <c r="I6" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="J6" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="K6" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="L6" s="8" t="s">
-        <v>37</v>
-      </c>
-      <c r="M6" s="7" t="s">
-        <v>38</v>
-      </c>
-      <c r="N6" s="7" t="s">
-        <v>37</v>
-      </c>
-      <c r="O6" s="7" t="s">
-        <v>39</v>
-      </c>
-      <c r="P6" s="7" t="s">
-        <v>40</v>
-      </c>
-      <c r="Q6" s="1" t="s">
+    <row r="6" s="3" customFormat="1" ht="180.3" spans="1:36">
+      <c r="A6" s="3" t="s">
         <v>41</v>
       </c>
-      <c r="R6" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="S6" s="7" t="s">
+      <c r="B6" s="11" t="s">
         <v>42</v>
       </c>
-      <c r="T6" s="7" t="s">
+      <c r="C6" s="11" t="s">
+        <v>42</v>
+      </c>
+      <c r="D6" s="11" t="s">
+        <v>42</v>
+      </c>
+      <c r="E6" s="11" t="s">
         <v>43</v>
       </c>
-      <c r="U6" s="7" t="s">
+      <c r="F6" s="11" t="s">
+        <v>43</v>
+      </c>
+      <c r="G6" s="11" t="s">
         <v>44</v>
       </c>
-      <c r="V6" s="7" t="s">
+      <c r="H6" s="12" t="s">
         <v>45</v>
       </c>
-      <c r="W6" s="1" t="s">
+      <c r="I6" s="3" t="s">
         <v>46</v>
       </c>
-      <c r="X6" s="1" t="s">
+      <c r="J6" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="K6" s="3" t="s">
         <v>47</v>
       </c>
-      <c r="Y6" s="1" t="s">
+      <c r="L6" s="12" t="s">
         <v>48</v>
       </c>
+      <c r="M6" s="11" t="s">
+        <v>49</v>
+      </c>
+      <c r="N6" s="11" t="s">
+        <v>48</v>
+      </c>
+      <c r="O6" s="11" t="s">
+        <v>50</v>
+      </c>
+      <c r="P6" s="11" t="s">
+        <v>51</v>
+      </c>
+      <c r="Q6" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="R6" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="S6" s="11" t="s">
+        <v>53</v>
+      </c>
+      <c r="T6" s="11" t="s">
+        <v>54</v>
+      </c>
+      <c r="U6" s="11" t="s">
+        <v>55</v>
+      </c>
+      <c r="V6" s="11" t="s">
+        <v>56</v>
+      </c>
+      <c r="W6" s="3" t="s">
+        <v>57</v>
+      </c>
+      <c r="X6" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="Y6" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="Z6" s="11" t="s">
+        <v>60</v>
+      </c>
+      <c r="AA6" s="3" t="s">
+        <v>61</v>
+      </c>
+      <c r="AB6" s="11" t="s">
+        <v>62</v>
+      </c>
+      <c r="AC6" s="11" t="s">
+        <v>63</v>
+      </c>
+      <c r="AE6" s="11" t="s">
+        <v>64</v>
+      </c>
+      <c r="AF6" s="11" t="s">
+        <v>64</v>
+      </c>
+      <c r="AG6" s="11" t="s">
+        <v>65</v>
+      </c>
+      <c r="AI6" s="11" t="s">
+        <v>66</v>
+      </c>
+      <c r="AJ6" s="11" t="s">
+        <v>67</v>
+      </c>
     </row>
-    <row r="7" spans="1:24">
+    <row r="7" spans="1:33">
       <c r="A7" t="s">
-        <v>49</v>
+        <v>68</v>
       </c>
       <c r="B7" t="s">
-        <v>50</v>
+        <v>69</v>
       </c>
       <c r="C7" t="s">
-        <v>51</v>
+        <v>70</v>
       </c>
       <c r="D7" t="s">
-        <v>50</v>
+        <v>69</v>
       </c>
       <c r="E7" t="s">
-        <v>50</v>
+        <v>69</v>
       </c>
       <c r="F7" t="s">
-        <v>50</v>
+        <v>69</v>
       </c>
       <c r="G7" t="s">
-        <v>50</v>
-      </c>
-      <c r="H7" s="4" t="s">
-        <v>50</v>
+        <v>69</v>
+      </c>
+      <c r="H7" s="6" t="s">
+        <v>69</v>
       </c>
       <c r="I7" t="s">
-        <v>50</v>
+        <v>69</v>
       </c>
       <c r="J7" t="s">
-        <v>50</v>
+        <v>69</v>
       </c>
       <c r="K7" t="s">
-        <v>50</v>
+        <v>69</v>
       </c>
       <c r="L7" t="s">
-        <v>50</v>
+        <v>69</v>
       </c>
       <c r="N7" t="s">
-        <v>50</v>
+        <v>69</v>
       </c>
       <c r="Q7" t="s">
-        <v>50</v>
+        <v>69</v>
       </c>
       <c r="R7" t="s">
-        <v>50</v>
+        <v>69</v>
       </c>
       <c r="S7" t="s">
-        <v>50</v>
+        <v>69</v>
       </c>
       <c r="T7" t="s">
-        <v>50</v>
+        <v>69</v>
       </c>
       <c r="U7" t="s">
-        <v>50</v>
+        <v>69</v>
       </c>
       <c r="W7" t="s">
-        <v>50</v>
+        <v>69</v>
       </c>
       <c r="X7" t="s">
-        <v>50</v>
+        <v>69</v>
+      </c>
+      <c r="Z7" t="s">
+        <v>69</v>
+      </c>
+      <c r="AG7" t="s">
+        <v>69</v>
       </c>
     </row>
-    <row r="8" spans="1:24">
+    <row r="8" spans="1:33">
       <c r="A8" t="s">
-        <v>52</v>
+        <v>71</v>
       </c>
       <c r="B8" t="s">
-        <v>53</v>
+        <v>72</v>
       </c>
       <c r="C8" t="s">
-        <v>53</v>
+        <v>72</v>
       </c>
       <c r="D8" t="s">
-        <v>54</v>
+        <v>73</v>
       </c>
       <c r="E8" t="s">
-        <v>54</v>
+        <v>73</v>
       </c>
       <c r="F8" t="s">
-        <v>54</v>
+        <v>73</v>
       </c>
       <c r="G8" t="s">
-        <v>54</v>
-      </c>
-      <c r="H8" s="4" t="s">
-        <v>54</v>
+        <v>73</v>
+      </c>
+      <c r="H8" s="6" t="s">
+        <v>73</v>
       </c>
       <c r="I8" t="s">
-        <v>54</v>
+        <v>73</v>
       </c>
       <c r="J8" t="s">
-        <v>54</v>
+        <v>73</v>
       </c>
       <c r="K8" t="s">
-        <v>55</v>
+        <v>74</v>
       </c>
       <c r="L8" t="s">
-        <v>55</v>
+        <v>74</v>
       </c>
       <c r="N8" t="s">
-        <v>55</v>
+        <v>74</v>
       </c>
       <c r="Q8" t="s">
-        <v>56</v>
+        <v>75</v>
       </c>
       <c r="R8" t="s">
-        <v>55</v>
+        <v>74</v>
       </c>
       <c r="S8" t="s">
-        <v>55</v>
+        <v>74</v>
       </c>
       <c r="T8" t="s">
-        <v>55</v>
+        <v>74</v>
       </c>
       <c r="U8" t="s">
-        <v>55</v>
+        <v>74</v>
       </c>
       <c r="W8" t="s">
-        <v>55</v>
+        <v>74</v>
       </c>
       <c r="X8" t="s">
-        <v>55</v>
+        <v>74</v>
+      </c>
+      <c r="Z8" t="s">
+        <v>74</v>
+      </c>
+      <c r="AF8" t="s">
+        <v>76</v>
+      </c>
+      <c r="AG8" t="s">
+        <v>76</v>
       </c>
     </row>
-    <row r="9" spans="1:24">
+    <row r="9" spans="1:33">
       <c r="A9" t="s">
-        <v>57</v>
+        <v>77</v>
       </c>
       <c r="E9">
         <v>24</v>
@@ -2024,140 +2372,182 @@
         <v>15</v>
       </c>
       <c r="G9" t="s">
-        <v>58</v>
-      </c>
-      <c r="H9" s="4" t="s">
-        <v>58</v>
+        <v>78</v>
+      </c>
+      <c r="H9" s="6" t="s">
+        <v>78</v>
       </c>
       <c r="I9" t="s">
-        <v>58</v>
+        <v>78</v>
       </c>
       <c r="J9" t="s">
-        <v>58</v>
+        <v>78</v>
       </c>
       <c r="K9" t="s">
-        <v>58</v>
+        <v>78</v>
       </c>
       <c r="L9" t="s">
-        <v>58</v>
+        <v>78</v>
       </c>
       <c r="N9" t="s">
-        <v>58</v>
+        <v>78</v>
       </c>
       <c r="Q9" t="s">
-        <v>58</v>
+        <v>78</v>
       </c>
       <c r="R9" t="s">
-        <v>58</v>
+        <v>78</v>
       </c>
       <c r="S9" t="s">
-        <v>59</v>
+        <v>79</v>
       </c>
       <c r="T9" t="s">
-        <v>59</v>
+        <v>79</v>
       </c>
       <c r="U9" t="s">
-        <v>59</v>
+        <v>79</v>
       </c>
       <c r="W9" t="s">
-        <v>59</v>
+        <v>79</v>
       </c>
       <c r="X9" t="s">
-        <v>59</v>
+        <v>79</v>
+      </c>
+      <c r="Z9" t="s">
+        <v>79</v>
+      </c>
+      <c r="AG9" t="s">
+        <v>78</v>
       </c>
     </row>
-    <row r="10" ht="33" customHeight="1" spans="1:24">
+    <row r="10" ht="33" customHeight="1" spans="1:33">
       <c r="A10" t="s">
-        <v>60</v>
-      </c>
-      <c r="H10" s="4"/>
+        <v>80</v>
+      </c>
+      <c r="H10" s="6"/>
       <c r="Q10" t="s">
-        <v>61</v>
+        <v>81</v>
       </c>
       <c r="R10" t="s">
-        <v>61</v>
+        <v>81</v>
       </c>
       <c r="S10" t="s">
-        <v>61</v>
+        <v>81</v>
       </c>
       <c r="T10" t="s">
-        <v>61</v>
+        <v>81</v>
       </c>
       <c r="U10" t="s">
-        <v>62</v>
+        <v>82</v>
       </c>
       <c r="W10" t="s">
-        <v>61</v>
+        <v>81</v>
       </c>
       <c r="X10" t="s">
-        <v>61</v>
+        <v>81</v>
+      </c>
+      <c r="Z10" t="s">
+        <v>81</v>
+      </c>
+      <c r="AG10" t="s">
+        <v>83</v>
       </c>
     </row>
-    <row r="11" s="1" customFormat="1" ht="60.1" spans="1:24">
-      <c r="A11" s="1" t="s">
-        <v>63</v>
-      </c>
-      <c r="I11" s="1" t="s">
-        <v>64</v>
-      </c>
-      <c r="J11" s="1" t="s">
-        <v>65</v>
-      </c>
-      <c r="K11" s="1" t="s">
-        <v>66</v>
-      </c>
-      <c r="L11" s="1" t="s">
-        <v>67</v>
-      </c>
-      <c r="M11" s="1" t="s">
-        <v>68</v>
-      </c>
-      <c r="N11" s="1" t="s">
-        <v>69</v>
-      </c>
-      <c r="O11" s="1" t="s">
-        <v>70</v>
-      </c>
-      <c r="P11" s="1" t="s">
-        <v>71</v>
-      </c>
-      <c r="Q11" s="1" t="s">
-        <v>72</v>
-      </c>
-      <c r="T11" s="1" t="s">
-        <v>73</v>
-      </c>
-      <c r="U11" s="7" t="s">
-        <v>74</v>
-      </c>
-      <c r="V11" s="1" t="s">
-        <v>75</v>
-      </c>
-      <c r="W11" s="1" t="s">
-        <v>76</v>
-      </c>
-      <c r="X11" s="6" t="s">
-        <v>77</v>
+    <row r="11" s="3" customFormat="1" ht="60.1" spans="1:36">
+      <c r="A11" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="I11" s="3" t="s">
+        <v>85</v>
+      </c>
+      <c r="J11" s="3" t="s">
+        <v>86</v>
+      </c>
+      <c r="K11" s="3" t="s">
+        <v>87</v>
+      </c>
+      <c r="L11" s="3" t="s">
+        <v>88</v>
+      </c>
+      <c r="M11" s="3" t="s">
+        <v>89</v>
+      </c>
+      <c r="N11" s="3" t="s">
+        <v>90</v>
+      </c>
+      <c r="O11" s="3" t="s">
+        <v>91</v>
+      </c>
+      <c r="P11" s="3" t="s">
+        <v>92</v>
+      </c>
+      <c r="Q11" s="3" t="s">
+        <v>93</v>
+      </c>
+      <c r="T11" s="3" t="s">
+        <v>94</v>
+      </c>
+      <c r="U11" s="11" t="s">
+        <v>95</v>
+      </c>
+      <c r="V11" s="3" t="s">
+        <v>96</v>
+      </c>
+      <c r="W11" s="3" t="s">
+        <v>97</v>
+      </c>
+      <c r="X11" s="8" t="s">
+        <v>98</v>
+      </c>
+      <c r="Z11" s="3" t="s">
+        <v>99</v>
+      </c>
+      <c r="AA11" s="3" t="s">
+        <v>100</v>
+      </c>
+      <c r="AB11" s="3" t="s">
+        <v>101</v>
+      </c>
+      <c r="AC11" s="3" t="s">
+        <v>102</v>
+      </c>
+      <c r="AD11" s="3" t="s">
+        <v>103</v>
+      </c>
+      <c r="AE11" s="3" t="s">
+        <v>104</v>
+      </c>
+      <c r="AF11" s="3" t="s">
+        <v>105</v>
+      </c>
+      <c r="AG11" s="3" t="s">
+        <v>106</v>
+      </c>
+      <c r="AI11" s="3" t="s">
+        <v>107</v>
+      </c>
+      <c r="AJ11" s="3" t="s">
+        <v>108</v>
       </c>
     </row>
     <row r="14" ht="23.75" spans="2:16">
-      <c r="B14" s="5" t="s">
-        <v>78</v>
-      </c>
-      <c r="C14" s="5"/>
-      <c r="D14" s="5"/>
-      <c r="E14" s="5"/>
-      <c r="F14" s="5"/>
-      <c r="G14" s="5"/>
-      <c r="H14" s="5"/>
-      <c r="I14" s="5"/>
-      <c r="J14" s="5"/>
-      <c r="K14" s="5"/>
-      <c r="L14" s="5"/>
-      <c r="M14" s="5"/>
-      <c r="N14" s="5"/>
-      <c r="O14" s="5"/>
-      <c r="P14" s="5"/>
+      <c r="B14" s="7" t="s">
+        <v>109</v>
+      </c>
+      <c r="C14" s="7"/>
+      <c r="D14" s="7"/>
+      <c r="E14" s="7"/>
+      <c r="F14" s="7"/>
+      <c r="G14" s="7"/>
+      <c r="H14" s="7"/>
+      <c r="I14" s="7"/>
+      <c r="J14" s="7"/>
+      <c r="K14" s="7"/>
+      <c r="L14" s="7"/>
+      <c r="M14" s="7"/>
+      <c r="N14" s="7"/>
+      <c r="O14" s="7"/>
+      <c r="P14" s="7"/>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -2166,4 +2556,102 @@
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <headerFooter/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:J17"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="J7" sqref="J7"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="8.88495575221239" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1" spans="1:1">
+      <c r="A1" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="3" spans="1:1">
+      <c r="A3" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="5" spans="1:1">
+      <c r="A5" s="13" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="6" spans="1:1">
+      <c r="A6" s="14" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10">
+      <c r="A7" s="13" t="s">
+        <v>114</v>
+      </c>
+      <c r="J7" s="13" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="8" spans="1:1">
+      <c r="A8" s="15" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="9" spans="1:1">
+      <c r="A9" s="13" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="10" spans="1:1">
+      <c r="A10" s="14" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="11" spans="1:1">
+      <c r="A11" s="13" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="12" spans="1:1">
+      <c r="A12" s="13" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5">
+      <c r="A13" s="14" t="s">
+        <v>121</v>
+      </c>
+      <c r="E13" s="14" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="14" spans="1:1">
+      <c r="A14" s="14" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="15" spans="1:1">
+      <c r="A15" s="13" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="16" spans="1:1">
+      <c r="A16" s="13" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="17" spans="1:1">
+      <c r="A17" s="14" t="s">
+        <v>126</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <headerFooter/>
+</worksheet>
 </file>